--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H2">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I2">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J2">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>2010.136387810582</v>
+        <v>1766.483438670834</v>
       </c>
       <c r="R2">
-        <v>18091.22749029524</v>
+        <v>15898.3509480375</v>
       </c>
       <c r="S2">
-        <v>0.0007171287993794325</v>
+        <v>0.00102713079470762</v>
       </c>
       <c r="T2">
-        <v>0.0007171287993794327</v>
+        <v>0.00102713079470762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H3">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I3">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J3">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>8316.542919486317</v>
+        <v>8499.715322195274</v>
       </c>
       <c r="R3">
-        <v>74848.88627537685</v>
+        <v>76497.43789975745</v>
       </c>
       <c r="S3">
-        <v>0.002966978994562005</v>
+        <v>0.004942202775613893</v>
       </c>
       <c r="T3">
-        <v>0.002966978994562006</v>
+        <v>0.004942202775613892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H4">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I4">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J4">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>21947.05469423226</v>
+        <v>15341.15232316694</v>
       </c>
       <c r="R4">
-        <v>197523.4922480904</v>
+        <v>138070.3709085025</v>
       </c>
       <c r="S4">
-        <v>0.0078297498011725</v>
+        <v>0.008920191173307309</v>
       </c>
       <c r="T4">
-        <v>0.007829749801172504</v>
+        <v>0.008920191173307309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H5">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I5">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J5">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>5888.666284566501</v>
+        <v>3778.712475588502</v>
       </c>
       <c r="R5">
-        <v>52997.99656109851</v>
+        <v>34008.41228029652</v>
       </c>
       <c r="S5">
-        <v>0.002100818734591879</v>
+        <v>0.002197151619458826</v>
       </c>
       <c r="T5">
-        <v>0.002100818734591879</v>
+        <v>0.002197151619458826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H6">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I6">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J6">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>25331.267611915</v>
+        <v>10299.67712468383</v>
       </c>
       <c r="R6">
-        <v>227981.408507235</v>
+        <v>92697.09412215449</v>
       </c>
       <c r="S6">
-        <v>0.009037089045026278</v>
+        <v>0.005988799735517766</v>
       </c>
       <c r="T6">
-        <v>0.009037089045026279</v>
+        <v>0.005988799735517766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J7">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>86196.5253252571</v>
+        <v>74116.04852411807</v>
       </c>
       <c r="R7">
-        <v>775768.727927314</v>
+        <v>667044.4367170627</v>
       </c>
       <c r="S7">
-        <v>0.03075115255463216</v>
+        <v>0.04309515399614874</v>
       </c>
       <c r="T7">
-        <v>0.03075115255463218</v>
+        <v>0.04309515399614874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J8">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>356621.1261708876</v>
@@ -948,10 +948,10 @@
         <v>3209590.135537988</v>
       </c>
       <c r="S8">
-        <v>0.1272268297788601</v>
+        <v>0.207359170606799</v>
       </c>
       <c r="T8">
-        <v>0.1272268297788601</v>
+        <v>0.207359170606799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J9">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>941110.19890878</v>
+        <v>643666.1477309217</v>
       </c>
       <c r="R9">
-        <v>8469991.79017902</v>
+        <v>5792995.329578296</v>
       </c>
       <c r="S9">
-        <v>0.3357469827021451</v>
+        <v>0.3742629607344136</v>
       </c>
       <c r="T9">
-        <v>0.3357469827021453</v>
+        <v>0.3742629607344136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J10">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>252511.5089740141</v>
+        <v>158542.8037809047</v>
       </c>
       <c r="R10">
-        <v>2272603.580766127</v>
+        <v>1426885.234028142</v>
       </c>
       <c r="S10">
-        <v>0.09008506903218508</v>
+        <v>0.09218552094956793</v>
       </c>
       <c r="T10">
-        <v>0.09008506903218511</v>
+        <v>0.09218552094956793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J11">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>1086228.408913837</v>
+        <v>432141.8207748407</v>
       </c>
       <c r="R11">
-        <v>9776055.680224532</v>
+        <v>3889276.386973567</v>
       </c>
       <c r="S11">
-        <v>0.3875188168622983</v>
+        <v>0.2512710632219916</v>
       </c>
       <c r="T11">
-        <v>0.3875188168622984</v>
+        <v>0.2512710632219916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H12">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>2.999146477823111</v>
+        <v>35.36623870330489</v>
       </c>
       <c r="R12">
-        <v>26.992318300408</v>
+        <v>318.2961483297441</v>
       </c>
       <c r="S12">
-        <v>1.069964369505763E-06</v>
+        <v>2.056387966619023E-05</v>
       </c>
       <c r="T12">
-        <v>1.069964369505763E-06</v>
+        <v>2.056387966619023E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H13">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>12.40837714092089</v>
+        <v>170.1702684634738</v>
       </c>
       <c r="R13">
-        <v>111.675394268288</v>
+        <v>1531.532416171264</v>
       </c>
       <c r="S13">
-        <v>4.426766589210314E-06</v>
+        <v>9.894636952498865E-05</v>
       </c>
       <c r="T13">
-        <v>4.426766589210314E-06</v>
+        <v>9.894636952498865E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H14">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I14">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J14">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>32.74525658256</v>
+        <v>307.140640646551</v>
       </c>
       <c r="R14">
-        <v>294.70730924304</v>
+        <v>2764.26576581896</v>
       </c>
       <c r="S14">
-        <v>1.168207624160252E-05</v>
+        <v>0.0001785884902219482</v>
       </c>
       <c r="T14">
-        <v>1.168207624160252E-05</v>
+        <v>0.0001785884902219482</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H15">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I15">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J15">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>8.785957437280889</v>
+        <v>75.65247682331733</v>
       </c>
       <c r="R15">
-        <v>79.07361693552799</v>
+        <v>680.872291409856</v>
       </c>
       <c r="S15">
-        <v>3.134445576232093E-06</v>
+        <v>4.398851805800218E-05</v>
       </c>
       <c r="T15">
-        <v>3.134445576232094E-06</v>
+        <v>4.398851805800218E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H16">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I16">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J16">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>37.79454095640622</v>
+        <v>206.2067675158169</v>
       </c>
       <c r="R16">
-        <v>340.150868607656</v>
+        <v>1855.860907642352</v>
       </c>
       <c r="S16">
-        <v>1.34834402001375E-05</v>
+        <v>0.0001198999754857467</v>
       </c>
       <c r="T16">
-        <v>1.34834402001375E-05</v>
+        <v>0.0001198999754857467</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H17">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I17">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J17">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>525.4979396184588</v>
+        <v>597.8981478405266</v>
       </c>
       <c r="R17">
-        <v>4729.481456566128</v>
+        <v>5381.083330564739</v>
       </c>
       <c r="S17">
-        <v>0.0001874746951501192</v>
+        <v>0.0003476509240345555</v>
       </c>
       <c r="T17">
-        <v>0.0001874746951501193</v>
+        <v>0.0003476509240345554</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H18">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I18">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J18">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>2174.144100589438</v>
+        <v>2876.881796376281</v>
       </c>
       <c r="R18">
-        <v>19567.29690530494</v>
+        <v>25891.93616738653</v>
       </c>
       <c r="S18">
-        <v>0.000775639582462252</v>
+        <v>0.001672777576683796</v>
       </c>
       <c r="T18">
-        <v>0.0007756395824622522</v>
+        <v>0.001672777576683796</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H19">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I19">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J19">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>5737.48731302478</v>
+        <v>5192.489416522685</v>
       </c>
       <c r="R19">
-        <v>51637.38581722302</v>
+        <v>46732.40474870417</v>
       </c>
       <c r="S19">
-        <v>0.002046884685633531</v>
+        <v>0.003019199424205681</v>
       </c>
       <c r="T19">
-        <v>0.002046884685633532</v>
+        <v>0.003019199424205681</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H20">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I20">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J20">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>1539.438825347993</v>
+        <v>1278.973321185635</v>
       </c>
       <c r="R20">
-        <v>13854.94942813194</v>
+        <v>11510.75989067071</v>
       </c>
       <c r="S20">
-        <v>0.0005492044834541441</v>
+        <v>0.0007436655532914027</v>
       </c>
       <c r="T20">
-        <v>0.0005492044834541443</v>
+        <v>0.0007436655532914027</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H21">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I21">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J21">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>6622.201865856422</v>
+        <v>3486.111299655051</v>
       </c>
       <c r="R21">
-        <v>59599.8167927078</v>
+        <v>31375.00169689546</v>
       </c>
       <c r="S21">
-        <v>0.002362512166889521</v>
+        <v>0.00202701717506514</v>
       </c>
       <c r="T21">
-        <v>0.002362512166889522</v>
+        <v>0.00202701717506514</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H22">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I22">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J22">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N22">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O22">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P22">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q22">
-        <v>5.667999831455665</v>
+        <v>36.61934611602134</v>
       </c>
       <c r="R22">
-        <v>51.011998483101</v>
+        <v>329.5741150441921</v>
       </c>
       <c r="S22">
-        <v>2.022094589532721E-06</v>
+        <v>2.12925053552292E-05</v>
       </c>
       <c r="T22">
-        <v>2.022094589532722E-06</v>
+        <v>2.129250535522919E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H23">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I23">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J23">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q23">
-        <v>23.45023161203733</v>
+        <v>176.1997935883947</v>
       </c>
       <c r="R23">
-        <v>211.052084508336</v>
+        <v>1585.798142295552</v>
       </c>
       <c r="S23">
-        <v>8.366017621036475E-06</v>
+        <v>0.0001024522676260937</v>
       </c>
       <c r="T23">
-        <v>8.366017621036477E-06</v>
+        <v>0.0001024522676260937</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H24">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I24">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J24">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N24">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q24">
-        <v>61.88430947381999</v>
+        <v>318.0233419925866</v>
       </c>
       <c r="R24">
-        <v>556.95878526438</v>
+        <v>2862.21007793328</v>
       </c>
       <c r="S24">
-        <v>2.207761663462193E-05</v>
+        <v>0.0001849162923611689</v>
       </c>
       <c r="T24">
-        <v>2.207761663462194E-05</v>
+        <v>0.0001849162923611689</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H25">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I25">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J25">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N25">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q25">
-        <v>16.60432581133233</v>
+        <v>78.33301857651199</v>
       </c>
       <c r="R25">
-        <v>149.438932301991</v>
+        <v>704.9971671886079</v>
       </c>
       <c r="S25">
-        <v>5.923697668373201E-06</v>
+        <v>4.554713271633006E-05</v>
       </c>
       <c r="T25">
-        <v>5.923697668373202E-06</v>
+        <v>4.554713271633006E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H26">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I26">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J26">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N26">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q26">
-        <v>71.42680537775632</v>
+        <v>213.5131489236373</v>
       </c>
       <c r="R26">
-        <v>642.841248399807</v>
+        <v>1921.618340312736</v>
       </c>
       <c r="S26">
-        <v>2.548196206718562E-05</v>
+        <v>0.0001241483081774465</v>
       </c>
       <c r="T26">
-        <v>2.548196206718562E-05</v>
+        <v>0.0001241483081774465</v>
       </c>
     </row>
   </sheetData>
